--- a/praecepta-benchmark/src/main/resources/decision_table.xlsx
+++ b/praecepta-benchmark/src/main/resources/decision_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bpacheco/dev/personal_git/praecepta/praecepta-benchmark/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB22F31-099D-E241-B8E6-28CDFB141EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401710B6-9C1E-1443-A02C-760532B43F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="decision_table" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="33">
   <si>
     <t>inputA</t>
   </si>
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="O120" sqref="O120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5047,6 +5047,9 @@
       <c r="N120" t="s">
         <v>31</v>
       </c>
+      <c r="O120" t="s">
+        <v>16</v>
+      </c>
       <c r="P120">
         <v>119</v>
       </c>
